--- a/SparkSQL Config.xlsx
+++ b/SparkSQL Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7EC331C7-E671-45ED-BDF6-C89C06A611DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B7E44-0E60-4748-B4EC-76CB7CAE23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{FC9ECD37-C6FA-4868-9F32-96A83A3D909A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC9ECD37-C6FA-4868-9F32-96A83A3D909A}"/>
   </bookViews>
   <sheets>
     <sheet name="SparkSQL Runtime Config" sheetId="1" r:id="rId1"/>
@@ -1636,20 +1636,20 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1901,13 +1901,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1949,13 +1949,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1983,13 +1983,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2017,13 +2017,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2107,13 +2107,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -2207,13 +2207,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -2353,13 +2353,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>71</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
@@ -2569,13 +2569,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>88</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>89</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>90</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>93</v>
       </c>
@@ -2827,13 +2827,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>95</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>96</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>97</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>99</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>100</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>102</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>111</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>112</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>113</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>115</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>117</v>
       </c>
